--- a/9 3/ExactModelData.xlsx
+++ b/9 3/ExactModelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5172BD7-36A4-4F12-82AE-92718CC67C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6018A5CA-30AB-4117-8208-FE082619756D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,31 +350,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-22.341289325659375</c:v>
+                  <c:v>-14.914115855410344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2442654446022914</c:v>
+                  <c:v>-31.123696914211564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.738786898705342</c:v>
+                  <c:v>80.930163077618985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-60.866592862081035</c:v>
+                  <c:v>-97.142743395277009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.300318238665199</c:v>
+                  <c:v>-27.013774904548868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.838326475075348</c:v>
+                  <c:v>66.238851431428614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.802200460809956</c:v>
+                  <c:v>-47.081652132063809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-97.456342349123716</c:v>
+                  <c:v>-48.669377991783747</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-22.992244482568168</c:v>
+                  <c:v>86.981689072886624</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -392,31 +392,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.779144415652027</c:v>
+                  <c:v>75.624790252904319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-37.08734008876921</c:v>
+                  <c:v>-82.421075298879927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.669527613147139</c:v>
+                  <c:v>-95.766161357116516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.922780358061686</c:v>
+                  <c:v>-16.480717250293836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.566734685800398</c:v>
+                  <c:v>15.713987719205093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-72.035753772828301</c:v>
+                  <c:v>-68.727789764679741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.716527451151819</c:v>
+                  <c:v>-96.508864130485634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-29.540618652997097</c:v>
+                  <c:v>89.478484715136432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.913146349755706</c:v>
+                  <c:v>-89.000930156330384</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1490,35 +1490,35 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1571,25 +1571,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.70252397110166642</v>
+        <v>0.79560610144430632</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>9.403494031635935</v>
+        <v>12.401216050394337</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1609,9 +1609,8 @@
       <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" aca="1" ref="L2:L11" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>2.6779008179658254E-2</v>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1624,46 +1623,46 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.81174757781210949</v>
+        <v>0.79560610144430632</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>7.3308103540470846</v>
+        <v>12.401216050394337</v>
       </c>
       <c r="U2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>11 metre</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.81174757781210949</v>
+        <v>0.93460652572864888</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>7.3308103540470846</v>
+        <v>10.846836835714752</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H11" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-22.341289325659375</v>
+        <v>-14.914115855410344</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>76.779144415652027</v>
+        <v>75.624790252904319</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I11" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
@@ -1677,9 +1676,9 @@
         <f ca="1">IF(J3=0,24,J3+1)</f>
         <v>24</v>
       </c>
-      <c r="L3">
-        <f ca="1"/>
-        <v>0.16608395484308452</v>
+      <c r="L3" cm="1">
+        <f t="array" aca="1" ref="L3:L11" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
+        <v>0.10866508654869611</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1692,62 +1691,62 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>0.79732113339722788</v>
+        <v>1.2811561841914838</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>14.691773204779631</v>
+        <v>8.4938022902266912</v>
       </c>
       <c r="U3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.81174757781210949</v>
+        <v>1.2811561841914838</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>7.3308103540470846</v>
+        <v>8.4938022902266912</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>1.2442654446022914</v>
+        <v>-31.123696914211564</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-37.08734008876921</v>
+        <v>-82.421075298879927</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J11" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>8.9777062702225269E-2</v>
+        <v>4.0117166048134145E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1760,31 +1759,31 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>0.70252397110166642</v>
+        <v>0.93460652572864888</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>9.403494031635935</v>
+        <v>10.846836835714752</v>
       </c>
       <c r="U4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>-21.738786898705342</v>
+        <v>80.930163077618985</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>86.669527613147139</v>
+        <v>-95.766161357116516</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -1796,7 +1795,7 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>4.0640940385237551E-2</v>
+        <v>7.5287061397433241E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1807,21 +1806,21 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-60.866592862081035</v>
+        <v>-97.142743395277009</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>75.922780358061686</v>
+        <v>-16.480717250293836</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1833,7 +1832,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>0.10664454065555476</v>
+        <v>3.4010986593496995E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1844,17 +1843,17 @@
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>23.300318238665199</v>
+        <v>-27.013774904548868</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>65.566734685800398</v>
+        <v>15.713987719205093</v>
       </c>
       <c r="I7">
         <f ca="1"/>
@@ -1870,7 +1869,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.16190089181017206</v>
+        <v>0.11108974912078837</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1880,33 +1879,33 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>43.838326475075348</v>
+        <v>66.238851431428614</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-72.035753772828301</v>
+        <v>-68.727789764679741</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K11" ca="1" si="3">IF(J8=0,24,J8+1)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>3.2368334768147433E-2</v>
+        <v>4.0310019012734011E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1915,17 +1914,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>21.802200460809956</v>
+        <v>-47.081652132063809</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>36.716527451151819</v>
+        <v>-96.508864130485634</v>
       </c>
       <c r="I9">
         <f ca="1"/>
@@ -1941,7 +1940,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>2.4696769656667034E-2</v>
+        <v>3.0903330021522818E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -1950,21 +1949,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>-97.456342349123716</v>
+        <v>-48.669377991783747</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>-29.540618652997097</v>
+        <v>89.478484715136432</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -1976,7 +1975,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>7.055937136473911E-2</v>
+        <v>0.1657069180596307</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -1985,33 +1984,33 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>-22.992244482568168</v>
+        <v>86.981689072886624</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>39.913146349755706</v>
+        <v>-89.000930156330384</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>6.9418247961973906E-2</v>
+        <v>0.12498471109582521</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2020,7 +2019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>11</v>
       </c>
@@ -2049,28 +2048,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.54838709677419351</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
   </sheetData>
@@ -2092,58 +2091,58 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SQRT(('1D'!$G$2-'1D'!$G2)^2+('1D'!$H$2-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>79.963555610867957</v>
+        <v>77.081383955818893</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>37.108206523040955</v>
+        <v>88.101748921524461</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>89.354249325442822</v>
+        <v>125.38280965446292</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>97.30884185898428</v>
+        <v>98.530841036929999</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>69.583773448852398</v>
+        <v>31.251775063713783</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>84.326441225483009</v>
+        <v>95.452053539423076</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>42.701748594226522</v>
+        <v>107.38083079973448</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>101.83509618236438</v>
+        <v>101.85827203042484</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>46.061942619511868</v>
+        <v>124.44669462329774</v>
       </c>
       <c r="K1">
         <f>SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>79.963555610867957</v>
+        <v>77.081383955818893</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2151,49 +2150,49 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>116.28350995397676</v>
+        <v>158.87493866596614</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>9.9087178266302001</v>
+        <v>196.36950908422833</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>38.534820253538953</v>
+        <v>123.47052968021077</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>46.998664587473989</v>
+        <v>61.120422195345647</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>162.86686424924076</v>
+        <v>165.6003365249955</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>59.61259068831334</v>
+        <v>175.11352135540579</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>130.17742972455534</v>
+        <v>36.487567364078473</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>36.8717446835782</v>
+        <v>193.6088398866257</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>79.963555610867957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77.081383955818893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>37.108206523040955</v>
+        <v>88.101748921524461</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>116.28350995397676</v>
+        <v>158.87493866596614</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2201,49 +2200,49 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>125.87288428571439</v>
+        <v>112.84573036216524</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>128.95365850955963</v>
+        <v>93.309406373874296</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>104.99680248787303</v>
+        <v>98.221087616097122</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>55.096693676660784</v>
+        <v>98.320760214098513</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>76.61357292269318</v>
+        <v>21.286665518556262</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>98.988701291006279</v>
+        <v>172.79267825196843</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>80.724738000313707</v>
+        <v>118.28853151978244</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>37.108206523040955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88.101748921524461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>89.354249325442822</v>
+        <v>125.38280965446292</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>9.9087178266302001</v>
+        <v>196.36950908422833</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>125.87288428571439</v>
+        <v>112.84573036216524</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2251,49 +2250,49 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>40.576813281383558</v>
+        <v>194.92599022942238</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>49.737801126603827</v>
+        <v>155.17640730851127</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>171.71990023942865</v>
+        <v>30.771873135319222</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>66.265525014337399</v>
+        <v>128.0139697091202</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>138.70092392837842</v>
+        <v>226.0787914507552</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>46.773179758940536</v>
+        <v>9.0768562879165469</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>89.354249325442822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125.38280965446292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>97.30884185898428</v>
+        <v>98.530841036929999</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>38.534820253538953</v>
+        <v>123.47052968021077</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>128.95365850955963</v>
+        <v>93.309406373874296</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>40.576813281383558</v>
+        <v>194.92599022942238</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2301,49 +2300,49 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>84.801630917140272</v>
+        <v>77.16586842410716</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>181.25906309909627</v>
+        <v>171.53221888158882</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>91.494588126639727</v>
+        <v>94.396065339299568</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>111.63036458997317</v>
+        <v>116.52046873700526</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>52.260501400052178</v>
+        <v>197.89135380723491</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>97.30884185898428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98.530841036929999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>69.583773448852398</v>
+        <v>31.251775063713783</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>46.998664587473989</v>
+        <v>61.120422195345647</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>104.99680248787303</v>
+        <v>98.221087616097122</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>49.737801126603827</v>
+        <v>155.17640730851127</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>84.801630917140272</v>
+        <v>77.16586842410716</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2351,49 +2350,49 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>139.12675735575056</v>
+        <v>125.80328335618017</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>28.889077769262471</v>
+        <v>114.00301826572947</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>153.71265314028423</v>
+        <v>76.877605075435454</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>52.925494403118932</v>
+        <v>154.79076145917409</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>69.583773448852398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31.251775063713783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>84.326441225483009</v>
+        <v>95.452053539423076</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>162.86686424924076</v>
+        <v>165.6003365249955</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>55.096693676660784</v>
+        <v>98.320760214098513</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>171.71990023942865</v>
+        <v>30.771873135319222</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>181.25906309909627</v>
+        <v>171.53221888158882</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>139.12675735575056</v>
+        <v>125.80328335618017</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2401,49 +2400,49 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>110.96237885489047</v>
+        <v>116.67615275111679</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>147.54667040293657</v>
+        <v>195.5329293852075</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>130.37975860224975</v>
+        <v>29.004577824189479</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>84.326441225483009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>95.452053539423076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>42.701748594226522</v>
+        <v>107.38083079973448</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>59.61259068831334</v>
+        <v>175.11352135540579</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>76.61357292269318</v>
+        <v>21.286665518556262</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>66.265525014337399</v>
+        <v>128.0139697091202</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>91.494588126639727</v>
+        <v>94.396065339299568</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>28.889077769262471</v>
+        <v>114.00301826572947</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>110.96237885489047</v>
+        <v>116.67615275111679</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2451,49 +2450,49 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>136.42803759863776</v>
+        <v>185.9941257245205</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>44.90835857797795</v>
+        <v>134.27340960739485</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>42.701748594226522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>107.38083079973448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>101.83509618236438</v>
+        <v>101.85827203042484</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>130.17742972455534</v>
+        <v>36.487567364078473</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>98.988701291006279</v>
+        <v>172.79267825196843</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>138.70092392837842</v>
+        <v>226.0787914507552</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>111.63036458997317</v>
+        <v>116.52046873700526</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>153.71265314028423</v>
+        <v>76.877605075435454</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>147.54667040293657</v>
+        <v>195.5329293852075</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>136.42803759863776</v>
+        <v>185.9941257245205</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2501,49 +2500,49 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>101.82694802525299</v>
+        <v>224.17875351746622</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>101.83509618236438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>101.85827203042484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>46.061942619511868</v>
+        <v>124.44669462329774</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>36.8717446835782</v>
+        <v>193.6088398866257</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>80.724738000313707</v>
+        <v>118.28853151978244</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>46.773179758940536</v>
+        <v>9.0768562879165469</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>52.260501400052178</v>
+        <v>197.89135380723491</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>52.925494403118932</v>
+        <v>154.79076145917409</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>130.37975860224975</v>
+        <v>29.004577824189479</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>44.90835857797795</v>
+        <v>134.27340960739485</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>101.82694802525299</v>
+        <v>224.17875351746622</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -2551,49 +2550,49 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>46.061942619511868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124.44669462329774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
         <v>0</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>79.963555610867957</v>
+        <v>77.081383955818893</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>37.108206523040955</v>
+        <v>88.101748921524461</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>89.354249325442822</v>
+        <v>125.38280965446292</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>97.30884185898428</v>
+        <v>98.530841036929999</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>69.583773448852398</v>
+        <v>31.251775063713783</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>84.326441225483009</v>
+        <v>95.452053539423076</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>42.701748594226522</v>
+        <v>107.38083079973448</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>101.83509618236438</v>
+        <v>101.85827203042484</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>46.061942619511868</v>
+        <v>124.44669462329774</v>
       </c>
       <c r="K11">
         <f>SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -2616,48 +2615,48 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>Distances!A1/80</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.9995444451358495</v>
+        <v>0.96351729944773612</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>0.46385258153801195</v>
+        <v>1.1012718615190558</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.1169281165680354</v>
+        <v>1.5672851206807865</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.86979716811065499</v>
+        <v>0.39064718829642231</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!G1/80</f>
-        <v>1.0540805153185375</v>
+        <v>1.1931506692427885</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>1.0540805153185375</v>
+        <v>1.1931506692427885</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>0.53377185742783151</v>
+        <v>1.342260384996681</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>1.2729387022795549</v>
+        <v>1.2732284003803105</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>0.5757742827438983</v>
+        <v>1.5555836827912217</v>
       </c>
       <c r="K1">
         <f>Distances!K1/80</f>
@@ -2688,10 +2687,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.9995444451358495</v>
+        <v>0.96351729944773612</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2699,39 +2698,39 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.4535438744247096</v>
+        <v>1.9859367333245768</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>0.1238589728328775</v>
+        <v>2.4546188635528541</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>0.48168525316923694</v>
+        <v>1.5433816210026348</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>0.58748330734342491</v>
+        <v>0.76400527744182056</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>2.0358358031155097</v>
+        <v>2.0700042065624435</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.7451573836039167</v>
+        <v>2.1889190169425725</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>1.6272178715569416</v>
+        <v>0.45609459205098091</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>0.46089680854472748</v>
+        <v>2.4201104985828215</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>0.9995444451358495</v>
+        <v>0.96351729944773612</v>
       </c>
       <c r="L2">
         <f>Distances!L2/80</f>
@@ -2758,14 +2757,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>0.46385258153801195</v>
+        <v>1.1012718615190558</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.4535438744247096</v>
+        <v>1.9859367333245768</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2773,35 +2772,35 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>1.5734110535714299</v>
+        <v>1.4105716295270656</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.6119207313694954</v>
+        <v>1.1663675796734287</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>1.3124600310984129</v>
+        <v>1.227763595201214</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.68870867095825983</v>
+        <v>1.2290095026762313</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>0.95766966153366473</v>
+        <v>0.26608331898195325</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>1.2373587661375784</v>
+        <v>2.1599084781496054</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>1.0090592250039214</v>
+        <v>1.4786066439972805</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>0.46385258153801195</v>
+        <v>1.1012718615190558</v>
       </c>
       <c r="L3">
         <f>Distances!L3/80</f>
@@ -2828,18 +2827,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.1169281165680354</v>
+        <v>1.5672851206807865</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>0.1238589728328775</v>
+        <v>2.4546188635528541</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>1.5734110535714299</v>
+        <v>1.4105716295270656</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2847,31 +2846,31 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>0.50721016601729452</v>
+        <v>2.4365748778677796</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.62172251408254786</v>
+        <v>1.9397050913563909</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>2.1464987529928581</v>
+        <v>0.38464841419149026</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>0.82831906267921751</v>
+        <v>1.6001746213640025</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>1.7337615491047302</v>
+        <v>2.8259848931344402</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>0.58466474698675674</v>
+        <v>0.11346070359895684</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>1.1169281165680354</v>
+        <v>1.5672851206807865</v>
       </c>
       <c r="L4">
         <f>Distances!L4/80</f>
@@ -2898,22 +2897,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.2163605232373036</v>
+        <v>1.231635512961625</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>0.48168525316923694</v>
+        <v>1.5433816210026348</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.6119207313694954</v>
+        <v>1.1663675796734287</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>0.50721016601729452</v>
+        <v>2.4365748778677796</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2921,27 +2920,27 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>1.0600203864642535</v>
+        <v>0.96457335530133947</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>2.2657382887387034</v>
+        <v>2.1441527360198602</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>1.1436823515829966</v>
+        <v>1.1799508167412447</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>1.3953795573746646</v>
+        <v>1.4565058592125657</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>0.65325626750065224</v>
+        <v>2.4736419225904362</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>1.2163605232373036</v>
+        <v>1.231635512961625</v>
       </c>
       <c r="L5">
         <f>Distances!L5/80</f>
@@ -2968,26 +2967,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.86979716811065499</v>
+        <v>0.39064718829642231</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>0.58748330734342491</v>
+        <v>0.76400527744182056</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>1.3124600310984129</v>
+        <v>1.227763595201214</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.62172251408254786</v>
+        <v>1.9397050913563909</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>1.0600203864642535</v>
+        <v>0.96457335530133947</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -2995,23 +2994,23 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>1.7390844669468819</v>
+        <v>1.5725410419522521</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>0.36111347211578088</v>
+        <v>1.4250377283216182</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>1.921408164253553</v>
+        <v>0.96097006344294322</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>0.66156868003898661</v>
+        <v>1.9348845182396761</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>0.86979716811065499</v>
+        <v>0.39064718829642231</v>
       </c>
       <c r="L6">
         <f>Distances!L6/80</f>
@@ -3038,30 +3037,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>1.0540805153185375</v>
+        <v>1.1931506692427885</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>2.0358358031155097</v>
+        <v>2.0700042065624435</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.68870867095825983</v>
+        <v>1.2290095026762313</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>2.1464987529928581</v>
+        <v>0.38464841419149026</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>2.2657382887387034</v>
+        <v>2.1441527360198602</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>1.7390844669468819</v>
+        <v>1.5725410419522521</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -3069,19 +3068,19 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.387029735686131</v>
+        <v>1.4584519093889599</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>1.8443333800367072</v>
+        <v>2.4441616173150935</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>1.6297469825281219</v>
+        <v>0.36255722280236846</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>1.0540805153185375</v>
+        <v>1.1931506692427885</v>
       </c>
       <c r="L7">
         <f>Distances!L7/80</f>
@@ -3108,34 +3107,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>0.53377185742783151</v>
+        <v>1.342260384996681</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.7451573836039167</v>
+        <v>2.1889190169425725</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>0.95766966153366473</v>
+        <v>0.26608331898195325</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>0.82831906267921751</v>
+        <v>1.6001746213640025</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>1.1436823515829966</v>
+        <v>1.1799508167412447</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>0.36111347211578088</v>
+        <v>1.4250377283216182</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.387029735686131</v>
+        <v>1.4584519093889599</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -3143,15 +3142,15 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>1.705350469982972</v>
+        <v>2.3249265715565062</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>0.56135448222472439</v>
+        <v>1.6784176200924357</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>0.53377185742783151</v>
+        <v>1.342260384996681</v>
       </c>
       <c r="L8">
         <f>Distances!L8/80</f>
@@ -3178,38 +3177,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>1.2729387022795549</v>
+        <v>1.2732284003803105</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>1.6272178715569416</v>
+        <v>0.45609459205098091</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>1.2373587661375784</v>
+        <v>2.1599084781496054</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>1.7337615491047302</v>
+        <v>2.8259848931344402</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>1.3953795573746646</v>
+        <v>1.4565058592125657</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>1.921408164253553</v>
+        <v>0.96097006344294322</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>1.8443333800367072</v>
+        <v>2.4441616173150935</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>1.705350469982972</v>
+        <v>2.3249265715565062</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -3217,11 +3216,11 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>1.2728368503156624</v>
+        <v>2.8022344189683279</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>1.2729387022795549</v>
+        <v>1.2732284003803105</v>
       </c>
       <c r="L9">
         <f>Distances!L9/80</f>
@@ -3248,42 +3247,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>0.5757742827438983</v>
+        <v>1.5555836827912217</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>0.46089680854472748</v>
+        <v>2.4201104985828215</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>1.0090592250039214</v>
+        <v>1.4786066439972805</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>0.58466474698675674</v>
+        <v>0.11346070359895684</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>0.65325626750065224</v>
+        <v>2.4736419225904362</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>0.66156868003898661</v>
+        <v>1.9348845182396761</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>1.6297469825281219</v>
+        <v>0.36255722280236846</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>0.56135448222472439</v>
+        <v>1.6784176200924357</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>1.2728368503156624</v>
+        <v>2.8022344189683279</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>0.5757742827438983</v>
+        <v>1.5555836827912217</v>
       </c>
       <c r="L10">
         <f>Distances!L10/80</f>
@@ -3318,46 +3317,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Distances!A11/80</f>
         <v>0</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>0.9995444451358495</v>
+        <v>0.96351729944773612</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>0.46385258153801195</v>
+        <v>1.1012718615190558</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>1.1169281165680354</v>
+        <v>1.5672851206807865</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>1.2163605232373036</v>
+        <v>1.231635512961625</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>0.86979716811065499</v>
+        <v>0.39064718829642231</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>1.0540805153185375</v>
+        <v>1.1931506692427885</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>0.53377185742783151</v>
+        <v>1.342260384996681</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>1.2729387022795549</v>
+        <v>1.2732284003803105</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>0.5757742827438983</v>
+        <v>1.5555836827912217</v>
       </c>
       <c r="K11">
         <f>Distances!K11/80</f>
@@ -3388,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Distances!A12/80</f>
         <v>0</v>
@@ -3458,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Distances!A13/80</f>
         <v>0</v>
@@ -3528,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Distances!A14/80</f>
         <v>0</v>
@@ -3598,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Distances!A15/80</f>
         <v>0</v>
@@ -3668,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Distances!A16/80</f>
         <v>0</v>
@@ -3738,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Distances!A17/80</f>
         <v>0</v>

--- a/9 3/ExactModelData.xlsx
+++ b/9 3/ExactModelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\9 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6018A5CA-30AB-4117-8208-FE082619756D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF9FC8D-2EDC-45FF-A6C3-69596B50D02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -350,31 +350,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14.914115855410344</c:v>
+                  <c:v>87.969013643129301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-31.123696914211564</c:v>
+                  <c:v>21.804646694184981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.930163077618985</c:v>
+                  <c:v>34.058134441000078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-97.142743395277009</c:v>
+                  <c:v>78.592131341974422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-27.013774904548868</c:v>
+                  <c:v>79.921889906539505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.238851431428614</c:v>
+                  <c:v>-7.1253972470639155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-47.081652132063809</c:v>
+                  <c:v>69.637121537345266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-48.669377991783747</c:v>
+                  <c:v>-89.888357203073411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.981689072886624</c:v>
+                  <c:v>79.718606588756629</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -392,31 +392,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.624790252904319</c:v>
+                  <c:v>-6.6728552229482574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-82.421075298879927</c:v>
+                  <c:v>84.261719045865348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-95.766161357116516</c:v>
+                  <c:v>-32.421742515411921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16.480717250293836</c:v>
+                  <c:v>-5.7770485493521875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.713987719205093</c:v>
+                  <c:v>88.367237326859438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-68.727789764679741</c:v>
+                  <c:v>45.757295207712787</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-96.508864130485634</c:v>
+                  <c:v>20.552639029651573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.478484715136432</c:v>
+                  <c:v>70.650322888760911</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-89.000930156330384</c:v>
+                  <c:v>63.075303076746394</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1489,7 +1489,7 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1577,19 +1577,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.79560610144430632</v>
+        <v>0.89164455543749654</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>12.401216050394337</v>
+        <v>13.203128546547127</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.79560610144430632</v>
+        <v>0.98898715471534193</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>12.401216050394337</v>
+        <v>10.926657534661485</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.93460652572864888</v>
+        <v>0.90058551647226515</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>10.846836835714752</v>
+        <v>7.6031871728130298</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
@@ -1658,15 +1658,15 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H11" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-14.914115855410344</v>
+        <v>87.969013643129301</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>75.624790252904319</v>
+        <v>-6.6728552229482574</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I11" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3:L11" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
-        <v>0.10866508654869611</v>
+        <v>0.12582836425890115</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1691,11 +1691,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.2811561841914838</v>
+        <v>0.89164455543749654</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>8.4938022902266912</v>
+        <v>13.203128546547127</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2811561841914838</v>
+        <v>0.89164455543749654</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>8.4938022902266912</v>
+        <v>13.203128546547127</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
@@ -1726,15 +1726,15 @@
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-31.123696914211564</v>
+        <v>21.804646694184981</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-82.421075298879927</v>
+        <v>84.261719045865348</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J11" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>4.0117166048134145E-2</v>
+        <v>7.4050577452780958E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1759,11 +1759,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>0.93460652572864888</v>
+        <v>0.90058551647226515</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>10.846836835714752</v>
+        <v>7.6031871728130298</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1775,15 +1775,15 @@
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>80.930163077618985</v>
+        <v>34.058134441000078</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>-95.766161357116516</v>
+        <v>-32.421742515411921</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>7.5287061397433241E-2</v>
+        <v>3.2288466686392597E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1812,11 +1812,11 @@
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-97.142743395277009</v>
+        <v>78.592131341974422</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-16.480717250293836</v>
+        <v>-5.7770485493521875</v>
       </c>
       <c r="I6">
         <f ca="1"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>3.4010986593496995E-2</v>
+        <v>0.15298825550722908</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1849,15 +1849,15 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>-27.013774904548868</v>
+        <v>79.921889906539505</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>15.713987719205093</v>
+        <v>88.367237326859438</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.11108974912078837</v>
+        <v>0.14402163478552069</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1885,27 +1885,27 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>66.238851431428614</v>
+        <v>-7.1253972470639155</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-68.727789764679741</v>
+        <v>45.757295207712787</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K11" ca="1" si="3">IF(J8=0,24,J8+1)</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>4.0310019012734011E-2</v>
+        <v>0.10452848461543987</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1920,15 +1920,15 @@
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>-47.081652132063809</v>
+        <v>69.637121537345266</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>-96.508864130485634</v>
+        <v>20.552639029651573</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>3.0903330021522818E-2</v>
+        <v>3.3253121682025627E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -1955,15 +1955,15 @@
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>-48.669377991783747</v>
+        <v>-89.888357203073411</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>89.478484715136432</v>
+        <v>70.650322888760911</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>0.1657069180596307</v>
+        <v>5.9441408540245433E-2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -1990,27 +1990,27 @@
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>86.981689072886624</v>
+        <v>79.718606588756629</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>-89.000930156330384</v>
+        <v>63.075303076746394</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>0.12498471109582521</v>
+        <v>0.15099538882268007</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2063,13 +2063,13 @@
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.52941176470588236</v>
+        <v>0.52702702702702697</v>
       </c>
     </row>
   </sheetData>
@@ -2100,39 +2100,39 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>77.081383955818893</v>
+        <v>88.221734046500671</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>88.101748921524461</v>
+        <v>87.037232918002275</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>125.38280965446292</v>
+        <v>47.022610618051658</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>98.530841036929999</v>
+        <v>78.804171201883278</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>31.251775063713783</v>
+        <v>119.14813099253601</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>95.452053539423076</v>
+        <v>46.308761057215101</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>107.38083079973448</v>
+        <v>72.60674670504217</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>101.85827203042484</v>
+        <v>114.33015737308112</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>124.44669462329774</v>
+        <v>101.65407072358866</v>
       </c>
       <c r="K1">
         <f>SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
@@ -2142,7 +2142,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>77.081383955818893</v>
+        <v>88.221734046500671</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2150,49 +2150,49 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>158.87493866596614</v>
+        <v>112.45808219601174</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>196.36950908422833</v>
+        <v>59.744356161453162</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>123.47052968021077</v>
+        <v>9.4195748994405726</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>61.120422195345647</v>
+        <v>95.380162467401988</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>165.6003365249955</v>
+        <v>108.59036631642167</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>175.11352135540579</v>
+        <v>32.822032317887526</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>36.487567364078473</v>
+        <v>193.93843929870835</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>193.6088398866257</v>
+        <v>70.234427475150014</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>77.081383955818893</v>
+        <v>88.221734046500671</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>88.101748921524461</v>
+        <v>87.037232918002275</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>158.87493866596614</v>
+        <v>112.45808219601174</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2200,49 +2200,49 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>112.84573036216524</v>
+        <v>117.32509605316085</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>93.309406373874296</v>
+        <v>106.45091865591634</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>98.221087616097122</v>
+        <v>58.262073761234632</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>98.320760214098513</v>
+        <v>48.161583212667367</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>21.286665518556262</v>
+        <v>79.666759229517368</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>172.79267825196843</v>
+        <v>112.51931934089637</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>118.28853151978244</v>
+        <v>61.667584453151655</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>88.101748921524461</v>
+        <v>87.037232918002275</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>125.38280965446292</v>
+        <v>47.022610618051658</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>196.36950908422833</v>
+        <v>59.744356161453162</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>112.84573036216524</v>
+        <v>117.32509605316085</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2250,49 +2250,49 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>194.92599022942238</v>
+        <v>51.896209847357568</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>155.17640730851127</v>
+        <v>129.20317997920728</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>30.771873135319222</v>
+        <v>88.363144022921276</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>128.0139697091202</v>
+        <v>63.81339532483647</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>226.0787914507552</v>
+        <v>161.20354666556335</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>9.0768562879165469</v>
+        <v>105.85161516758643</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>125.38280965446292</v>
+        <v>47.022610618051658</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>98.530841036929999</v>
+        <v>78.804171201883278</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>123.47052968021077</v>
+        <v>9.4195748994405726</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>93.309406373874296</v>
+        <v>106.45091865591634</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>194.92599022942238</v>
+        <v>51.896209847357568</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2300,49 +2300,49 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>77.16586842410716</v>
+        <v>94.153676619566454</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>171.53221888158882</v>
+        <v>100.01641512213855</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>94.396065339299568</v>
+        <v>27.810872848742974</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>116.52046873700526</v>
+        <v>185.00491378695133</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>197.89135380723491</v>
+        <v>68.861565992399079</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>98.530841036929999</v>
+        <v>78.804171201883278</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>31.251775063713783</v>
+        <v>119.14813099253601</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>61.120422195345647</v>
+        <v>95.380162467401988</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>98.221087616097122</v>
+        <v>58.262073761234632</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>155.17640730851127</v>
+        <v>129.20317997920728</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>77.16586842410716</v>
+        <v>94.153676619566454</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2350,49 +2350,49 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>125.80328335618017</v>
+        <v>96.916651655940527</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>114.00301826572947</v>
+        <v>68.590059065579226</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>76.877605075435454</v>
+        <v>170.73198025160579</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>154.79076145917409</v>
+        <v>25.292751179326658</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>31.251775063713783</v>
+        <v>119.14813099253601</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>95.452053539423076</v>
+        <v>46.308761057215101</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>165.6003365249955</v>
+        <v>108.59036631642167</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>98.320760214098513</v>
+        <v>48.161583212667367</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>30.771873135319222</v>
+        <v>88.363144022921276</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>171.53221888158882</v>
+        <v>100.01641512213855</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>125.80328335618017</v>
+        <v>96.916651655940527</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2400,49 +2400,49 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>116.67615275111679</v>
+        <v>80.794547979310153</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>195.5329293852075</v>
+        <v>86.42551919317269</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>29.004577824189479</v>
+        <v>88.553906739273359</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>95.452053539423076</v>
+        <v>46.308761057215101</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>107.38083079973448</v>
+        <v>72.60674670504217</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>175.11352135540579</v>
+        <v>32.822032317887526</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>21.286665518556262</v>
+        <v>79.666759229517368</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>128.0139697091202</v>
+        <v>63.81339532483647</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>94.396065339299568</v>
+        <v>27.810872848742974</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>114.00301826572947</v>
+        <v>68.590059065579226</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>116.67615275111679</v>
+        <v>80.794547979310153</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2450,49 +2450,49 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>185.9941257245205</v>
+        <v>167.20692657724152</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>134.27340960739485</v>
+        <v>43.701410715260913</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>107.38083079973448</v>
+        <v>72.60674670504217</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>101.85827203042484</v>
+        <v>114.33015737308112</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>36.487567364078473</v>
+        <v>193.93843929870835</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>172.79267825196843</v>
+        <v>112.51931934089637</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>226.0787914507552</v>
+        <v>161.20354666556335</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>116.52046873700526</v>
+        <v>185.00491378695133</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>76.877605075435454</v>
+        <v>170.73198025160579</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>195.5329293852075</v>
+        <v>86.42551919317269</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>185.9941257245205</v>
+        <v>167.20692657724152</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2500,49 +2500,49 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>224.17875351746622</v>
+        <v>169.77603803786786</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>101.85827203042484</v>
+        <v>114.33015737308112</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>124.44669462329774</v>
+        <v>101.65407072358866</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>193.6088398866257</v>
+        <v>70.234427475150014</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>118.28853151978244</v>
+        <v>61.667584453151655</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>9.0768562879165469</v>
+        <v>105.85161516758643</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>197.89135380723491</v>
+        <v>68.861565992399079</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>154.79076145917409</v>
+        <v>25.292751179326658</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>29.004577824189479</v>
+        <v>88.553906739273359</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>134.27340960739485</v>
+        <v>43.701410715260913</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>224.17875351746622</v>
+        <v>169.77603803786786</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>124.44669462329774</v>
+        <v>101.65407072358866</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2560,39 +2560,39 @@
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>77.081383955818893</v>
+        <v>88.221734046500671</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>88.101748921524461</v>
+        <v>87.037232918002275</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>125.38280965446292</v>
+        <v>47.022610618051658</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>98.530841036929999</v>
+        <v>78.804171201883278</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>31.251775063713783</v>
+        <v>119.14813099253601</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>95.452053539423076</v>
+        <v>46.308761057215101</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>107.38083079973448</v>
+        <v>72.60674670504217</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>101.85827203042484</v>
+        <v>114.33015737308112</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>124.44669462329774</v>
+        <v>101.65407072358866</v>
       </c>
       <c r="K11">
         <f>SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -2611,8 +2611,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,39 +2624,39 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.96351729944773612</v>
+        <v>1.1027716755812584</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.1012718615190558</v>
+        <v>1.0879654114750283</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.5672851206807865</v>
+        <v>0.58778263272564568</v>
       </c>
       <c r="E1">
+        <f ca="1">Distances!E1/80</f>
+        <v>0.98505214002354102</v>
+      </c>
+      <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.39064718829642231</v>
-      </c>
-      <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>1.1931506692427885</v>
+        <v>1.4893516374067002</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>1.1931506692427885</v>
+        <v>0.5788595132151888</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>1.342260384996681</v>
+        <v>0.90758433381302717</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>1.2732284003803105</v>
+        <v>1.4291269671635141</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>1.5555836827912217</v>
+        <v>1.2706758840448582</v>
       </c>
       <c r="K1">
         <f>Distances!K1/80</f>
@@ -2690,7 +2690,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.96351729944773612</v>
+        <v>1.1027716755812584</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2698,39 +2698,39 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.9859367333245768</v>
+        <v>1.4057260274501469</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>2.4546188635528541</v>
+        <v>0.74680445201816448</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>1.5433816210026348</v>
+        <v>0.11774468624300716</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>0.76400527744182056</v>
+        <v>1.1922520308425248</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>2.0700042065624435</v>
+        <v>1.3573795789552707</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>2.1889190169425725</v>
+        <v>0.41027540397359408</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>0.45609459205098091</v>
+        <v>2.4242304912338541</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>2.4201104985828215</v>
+        <v>0.87793034343937515</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>0.96351729944773612</v>
+        <v>1.1027716755812584</v>
       </c>
       <c r="L2">
         <f>Distances!L2/80</f>
@@ -2760,11 +2760,11 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.1012718615190558</v>
+        <v>1.0879654114750283</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.9859367333245768</v>
+        <v>1.4057260274501469</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2772,35 +2772,35 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>1.4105716295270656</v>
+        <v>1.4665637006645107</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.1663675796734287</v>
+        <v>1.3306364831989543</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>1.227763595201214</v>
+        <v>0.7282759220154329</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>1.2290095026762313</v>
+        <v>0.60201979015834206</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>0.26608331898195325</v>
+        <v>0.9958344903689671</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>2.1599084781496054</v>
+        <v>1.4064914917612046</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>1.4786066439972805</v>
+        <v>0.77084480566439573</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>1.1012718615190558</v>
+        <v>1.0879654114750283</v>
       </c>
       <c r="L3">
         <f>Distances!L3/80</f>
@@ -2830,15 +2830,15 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.5672851206807865</v>
+        <v>0.58778263272564568</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>2.4546188635528541</v>
+        <v>0.74680445201816448</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>1.4105716295270656</v>
+        <v>1.4665637006645107</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2846,31 +2846,31 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>2.4365748778677796</v>
+        <v>0.64870262309196958</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>1.9397050913563909</v>
+        <v>1.615039749740091</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>0.38464841419149026</v>
+        <v>1.104539300286516</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.6001746213640025</v>
+        <v>0.79766744156045588</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>2.8259848931344402</v>
+        <v>2.0150443333195418</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>0.11346070359895684</v>
+        <v>1.3231451895948303</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>1.5672851206807865</v>
+        <v>0.58778263272564568</v>
       </c>
       <c r="L4">
         <f>Distances!L4/80</f>
@@ -2900,19 +2900,19 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.231635512961625</v>
+        <v>0.98505214002354102</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>1.5433816210026348</v>
+        <v>0.11774468624300716</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.1663675796734287</v>
+        <v>1.3306364831989543</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>2.4365748778677796</v>
+        <v>0.64870262309196958</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2920,27 +2920,27 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>0.96457335530133947</v>
+        <v>1.1769209577445807</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>2.1441527360198602</v>
+        <v>1.2502051890267318</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>1.1799508167412447</v>
+        <v>0.34763591060928717</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>1.4565058592125657</v>
+        <v>2.3125614223368918</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>2.4736419225904362</v>
+        <v>0.86076957490498851</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>1.231635512961625</v>
+        <v>0.98505214002354102</v>
       </c>
       <c r="L5">
         <f>Distances!L5/80</f>
@@ -2970,23 +2970,23 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.39064718829642231</v>
+        <v>1.4893516374067002</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>0.76400527744182056</v>
+        <v>1.1922520308425248</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>1.227763595201214</v>
+        <v>0.7282759220154329</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>1.9397050913563909</v>
+        <v>1.615039749740091</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>0.96457335530133947</v>
+        <v>1.1769209577445807</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -2994,23 +2994,23 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>1.5725410419522521</v>
+        <v>1.2114581456992566</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.4250377283216182</v>
+        <v>0.85737573831974034</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>0.96097006344294322</v>
+        <v>2.1341497531450724</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>1.9348845182396761</v>
+        <v>0.3161593897415832</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>0.39064718829642231</v>
+        <v>1.4893516374067002</v>
       </c>
       <c r="L6">
         <f>Distances!L6/80</f>
@@ -3040,27 +3040,27 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>1.1931506692427885</v>
+        <v>0.5788595132151888</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>2.0700042065624435</v>
+        <v>1.3573795789552707</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>1.2290095026762313</v>
+        <v>0.60201979015834206</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>0.38464841419149026</v>
+        <v>1.104539300286516</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>2.1441527360198602</v>
+        <v>1.2502051890267318</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>1.5725410419522521</v>
+        <v>1.2114581456992566</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -3068,19 +3068,19 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.4584519093889599</v>
+        <v>1.009931849741377</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>2.4441616173150935</v>
+        <v>1.0803189899146586</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>0.36255722280236846</v>
+        <v>1.1069238342409169</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>1.1931506692427885</v>
+        <v>0.5788595132151888</v>
       </c>
       <c r="L7">
         <f>Distances!L7/80</f>
@@ -3110,31 +3110,31 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>1.342260384996681</v>
+        <v>0.90758433381302717</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>2.1889190169425725</v>
+        <v>0.41027540397359408</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>0.26608331898195325</v>
+        <v>0.9958344903689671</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.6001746213640025</v>
+        <v>0.79766744156045588</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>1.1799508167412447</v>
+        <v>0.34763591060928717</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.4250377283216182</v>
+        <v>0.85737573831974034</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.4584519093889599</v>
+        <v>1.009931849741377</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -3142,15 +3142,15 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>2.3249265715565062</v>
+        <v>2.0900865822155188</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>1.6784176200924357</v>
+        <v>0.54626763394076139</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>1.342260384996681</v>
+        <v>0.90758433381302717</v>
       </c>
       <c r="L8">
         <f>Distances!L8/80</f>
@@ -3180,35 +3180,35 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>1.2732284003803105</v>
+        <v>1.4291269671635141</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>0.45609459205098091</v>
+        <v>2.4242304912338541</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>2.1599084781496054</v>
+        <v>1.4064914917612046</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>2.8259848931344402</v>
+        <v>2.0150443333195418</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>1.4565058592125657</v>
+        <v>2.3125614223368918</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>0.96097006344294322</v>
+        <v>2.1341497531450724</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>2.4441616173150935</v>
+        <v>1.0803189899146586</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>2.3249265715565062</v>
+        <v>2.0900865822155188</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -3216,11 +3216,11 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>2.8022344189683279</v>
+        <v>2.1222004754733481</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>1.2732284003803105</v>
+        <v>1.4291269671635141</v>
       </c>
       <c r="L9">
         <f>Distances!L9/80</f>
@@ -3250,39 +3250,39 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>1.5555836827912217</v>
+        <v>1.2706758840448582</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>2.4201104985828215</v>
+        <v>0.87793034343937515</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>1.4786066439972805</v>
+        <v>0.77084480566439573</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>0.11346070359895684</v>
+        <v>1.3231451895948303</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>2.4736419225904362</v>
+        <v>0.86076957490498851</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>1.9348845182396761</v>
+        <v>0.3161593897415832</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>0.36255722280236846</v>
+        <v>1.1069238342409169</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>1.6784176200924357</v>
+        <v>0.54626763394076139</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>2.8022344189683279</v>
+        <v>2.1222004754733481</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>1.5555836827912217</v>
+        <v>1.2706758840448582</v>
       </c>
       <c r="L10">
         <f>Distances!L10/80</f>
@@ -3324,39 +3324,39 @@
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>0.96351729944773612</v>
+        <v>1.1027716755812584</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>1.1012718615190558</v>
+        <v>1.0879654114750283</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>1.5672851206807865</v>
+        <v>0.58778263272564568</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>1.231635512961625</v>
+        <v>0.98505214002354102</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>0.39064718829642231</v>
+        <v>1.4893516374067002</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>1.1931506692427885</v>
+        <v>0.5788595132151888</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>1.342260384996681</v>
+        <v>0.90758433381302717</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>1.2732284003803105</v>
+        <v>1.4291269671635141</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>1.5555836827912217</v>
+        <v>1.2706758840448582</v>
       </c>
       <c r="K11">
         <f>Distances!K11/80</f>
